--- a/templates/bain_ptp_assessment.xlsx
+++ b/templates/bain_ptp_assessment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategystackconsulting-my.sharepoint.com/personal/sudhakar_ghantasala_strategystackconsulting_com/Documents/Documents/StrategyStack/Projects/Bain/Generic AI Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_7C6DB5DBBA6329244DF325D635E950E3B1343E43" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AD85FF5-0E42-45C9-A294-B150B6E39966}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_7C6DB5DBBA6329244DF325D635E950E3B1343E43" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{136BDB0A-B242-4F04-8E43-2C2824964F87}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="14400" windowHeight="8170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="assessment_meta" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>field</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t>From trigger to closure; highlight handoffs.</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>What are all the technologies that are used currently in Bain?</t>
+  </si>
+  <si>
+    <t>technology list</t>
   </si>
 </sst>
 </file>
@@ -499,10 +508,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -577,6 +586,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
